--- a/Financial Calculations/CopyOracle1.xlsx
+++ b/Financial Calculations/CopyOracle1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MustafaPC\Downloads\Oracle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mustafa\code\MohamammadMustafaHakimi\financeProjects\Oracle-Financial-Data-Analysis\Financial Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,22 +13,21 @@
   </bookViews>
   <sheets>
     <sheet name="Financial Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Du-Pont Analysis" sheetId="4" r:id="rId2"/>
-    <sheet name="Financial Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="Ratio Analysis" sheetId="2" r:id="rId4"/>
+    <sheet name="Ratio Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="TBD - Du-Pont Analysis" sheetId="4" r:id="rId3"/>
+    <sheet name="TBD - Financial Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Financial Data"</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Ratio Analysis"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Ratio Analysis"</definedName>
   </definedNames>
   <calcPr calcId="162913" iterate="1"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Item</t>
   </si>
@@ -73,9 +72,6 @@
   </si>
   <si>
     <t>Accounts Receivable</t>
-  </si>
-  <si>
-    <t>Market Price Per Share</t>
   </si>
   <si>
     <t>Book Value per Share</t>
@@ -236,16 +232,69 @@
   <si>
     <t>Shares Outstanding (Basic)</t>
   </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dividing total equity by basic shares outstanding would give out </t>
+  </si>
+  <si>
+    <t>Book Value per Share (Basic) (Calculated)</t>
+  </si>
+  <si>
+    <t>Book Value per Share (Diluted) (Calculated)</t>
+  </si>
+  <si>
+    <t>Average Book Value</t>
+  </si>
+  <si>
+    <t>Market Price Per Share (Offically used as of November of prior year)</t>
+  </si>
+  <si>
+    <t>Market Price Per Share ( as of 15.11.2025)</t>
+  </si>
+  <si>
+    <t>186,2</t>
+  </si>
+  <si>
+    <t>305,8</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>all numbers are in millions, and period is used as decimal separator</t>
+  </si>
+  <si>
+    <t>Common Equity</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
+  </si>
+  <si>
+    <t>Par Value per Share</t>
+  </si>
+  <si>
+    <t>https://www.macrotrends.net/stocks/charts/ORCL/oracle/gross-margin</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Costs of Goods Sold or Costs of Revenue</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -301,8 +350,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Sans"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +370,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -325,25 +386,55 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,339 +713,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="1"/>
+    <col min="4" max="4" width="61.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="9">
         <v>2025</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="9">
         <v>2024</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>60</v>
+      <c r="D1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>143.78200000000001</v>
+      <c r="B2" s="11">
+        <v>143782</v>
       </c>
-      <c r="C2">
-        <v>118.422</v>
+      <c r="C2" s="11">
+        <v>118422</v>
       </c>
       <c r="D2" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>24.579000000000001</v>
+      <c r="B3" s="11">
+        <v>24579</v>
       </c>
-      <c r="C3">
-        <v>22.553999999999998</v>
+      <c r="C3" s="11">
+        <v>22554</v>
       </c>
       <c r="D3" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>32.554000000000002</v>
+      <c r="B4" s="11">
+        <v>32554</v>
       </c>
-      <c r="C4">
-        <v>31.553999999999998</v>
+      <c r="C4" s="11">
+        <v>31554</v>
       </c>
       <c r="D4" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>168.36099999999999</v>
+      <c r="B5" s="11">
+        <v>168361</v>
       </c>
-      <c r="C5">
-        <v>140.976</v>
+      <c r="C5" s="11">
+        <v>140976</v>
       </c>
       <c r="D5" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>114.749</v>
+      <c r="B6" s="11">
+        <v>114749</v>
       </c>
-      <c r="C6">
-        <v>100.193</v>
+      <c r="C6" s="11">
+        <v>100193</v>
       </c>
       <c r="D6" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>32.643000000000001</v>
+      <c r="B7" s="11">
+        <v>32643</v>
       </c>
-      <c r="C7">
-        <v>31.544</v>
+      <c r="C7" s="11">
+        <v>31544</v>
       </c>
       <c r="D7" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <f>B6+B7</f>
-        <v>147.392</v>
+        <v>147392</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <f>C6+C7</f>
-        <v>131.73699999999999</v>
+        <v>131737</v>
       </c>
       <c r="D8" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="11">
+        <v>37107</v>
+      </c>
+      <c r="C9" s="11">
+        <v>32764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>20.969000000000001</v>
+      <c r="B10" s="11">
+        <v>20969</v>
       </c>
-      <c r="C9">
-        <v>9.2390000000000008</v>
+      <c r="C10" s="11">
+        <v>9239</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>57.399000000000001</v>
+      <c r="B11" s="11">
+        <v>57399</v>
       </c>
-      <c r="C10">
-        <v>52.960999999999999</v>
+      <c r="C11" s="11">
+        <v>52961</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
+        <f>'Financial Data'!B137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="11">
+        <v>39721</v>
+      </c>
+      <c r="C12" s="11">
+        <v>37608</v>
+      </c>
+      <c r="D12" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>61</v>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>84</v>
       </c>
-      <c r="B11">
-        <v>39.720999999999997</v>
+      <c r="B13" s="11">
+        <v>16929</v>
       </c>
-      <c r="C11">
-        <v>37.607999999999997</v>
+      <c r="C13" s="11">
+        <v>15147</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13">
+        <f>B11-B13</f>
+        <v>40470</v>
+      </c>
+      <c r="C14" s="13">
+        <f>C11-C13</f>
+        <v>37814</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="14">
+        <v>22792</v>
+      </c>
+      <c r="C15" s="14">
+        <v>22461</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="11">
+        <f>B14-B15</f>
+        <v>17678</v>
+      </c>
+      <c r="C16" s="11">
+        <f>C14-C15</f>
+        <v>15353</v>
+      </c>
+      <c r="D16" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>10</v>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="11">
+        <v>978</v>
+      </c>
+      <c r="C17" s="11">
+        <v>878</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>11</v>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>12</v>
       </c>
-      <c r="B13">
-        <v>17.678000000000001</v>
+      <c r="B18" s="15">
+        <v>12443</v>
       </c>
-      <c r="C13">
-        <v>15.353</v>
+      <c r="C18" s="15">
+        <v>10467</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D18" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>12</v>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <v>12.443</v>
+      <c r="B19" s="12">
+        <v>303</v>
       </c>
-      <c r="C14" s="8">
-        <v>10.467000000000001</v>
+      <c r="C19" s="12">
+        <v>334</v>
       </c>
-      <c r="D14" s="1">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="12">
+        <v>835</v>
+      </c>
+      <c r="C20" s="12">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2807</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2789</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2866</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="17">
+        <v>116.21</v>
+      </c>
+      <c r="C25" s="17">
+        <v>117.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>13</v>
+      <c r="B28" s="14">
+        <f>B18/B21</f>
+        <v>4.4328464552903455</v>
       </c>
-      <c r="B15">
-        <v>334</v>
-      </c>
-      <c r="C15">
-        <v>303</v>
+      <c r="C28" s="14">
+        <f>C18/C21</f>
+        <v>3.7992740471869331</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>14</v>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>64</v>
       </c>
-      <c r="B16">
-        <v>821</v>
+      <c r="B29" s="14">
+        <f>B18/B23</f>
+        <v>4.3415910676901603</v>
       </c>
-      <c r="C16">
-        <v>835</v>
+      <c r="C29" s="14">
+        <f>C18/C23</f>
+        <v>3.7077577045696066</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>68</v>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>16</v>
       </c>
-      <c r="B17">
-        <v>2.7890000000000001</v>
+      <c r="B30" s="14" t="s">
+        <v>76</v>
       </c>
-      <c r="C17">
-        <v>2.7440000000000002</v>
+      <c r="C30" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>67</v>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="B18">
-        <v>2.8660000000000001</v>
+      <c r="B31" s="18">
+        <v>7.4</v>
       </c>
-      <c r="C18">
-        <v>2.823</v>
+      <c r="C31" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>15</v>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="14">
+        <f>B10/B22</f>
+        <v>7.5184653997848692</v>
+      </c>
+      <c r="C32" s="14">
+        <f>C10/C22</f>
+        <v>3.3669825072886299</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>66</v>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
-      <c r="B20" s="1">
-        <f>B14/B17</f>
-        <v>4.4614557188956612</v>
+      <c r="B33" s="14">
+        <f>B10/B23</f>
+        <v>7.316468946266574</v>
       </c>
-      <c r="C20" s="1">
-        <f>C14/C17</f>
-        <v>3.8145043731778423</v>
+      <c r="C33" s="14">
+        <f>C10/C23</f>
+        <v>3.2727594757350338</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>65</v>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
-      <c r="B21" s="1">
-        <f>B14/B18</f>
-        <v>4.3415910676901603</v>
+      <c r="B34" s="14">
+        <f>AVERAGE(B32:B33)</f>
+        <v>7.417467173025722</v>
       </c>
-      <c r="C21" s="1">
-        <f>C14/C18</f>
-        <v>3.7077577045696071</v>
+      <c r="C34" s="14">
+        <f>AVERAGE(C32:C33)</f>
+        <v>3.3198709915118316</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3.3</v>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="D14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -962,200 +1191,296 @@
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.42578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2">
         <f>'Financial Data'!B3/'Financial Data'!B4</f>
         <v>0.75502242427965838</v>
       </c>
+      <c r="E2">
+        <f>'Financial Data'!C3/'Financial Data'!C4</f>
+        <v>0.71477467199087275</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
+      <c r="D3" s="4">
+        <f xml:space="preserve"> ('Financial Data'!B3 - 'Financial Data'!B19) / 'Financial Data'!B7</f>
+        <v>0.74368164690745331</v>
       </c>
-      <c r="D3" s="4">
-        <f>('Financial Data'!B3-'Financial Data'!B15)/'Financial Data'!B4</f>
-        <v>-9.5048534742274366</v>
+      <c r="E3" s="4">
+        <f xml:space="preserve"> ('Financial Data'!C3 - 'Financial Data'!C19) / 'Financial Data'!C7</f>
+        <v>0.70441288359117427</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
+      <c r="D6" s="1">
+        <f>'Financial Data'!B13/'Financial Data'!B19</f>
+        <v>55.871287128712872</v>
+      </c>
+      <c r="E6" s="1">
+        <f>'Financial Data'!C13/'Financial Data'!C19</f>
+        <v>45.350299401197603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>36</v>
+      <c r="D7" s="1">
+        <f>'Financial Data'!B8/'Financial Data'!B5</f>
+        <v>0.87545215340844973</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'Financial Data'!C8/'Financial Data'!C5</f>
+        <v>0.93446402224492109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
-        <v>38</v>
+      <c r="D8" s="1">
+        <f>'Financial Data'!B16/'Financial Data'!B17</f>
+        <v>18.075664621676893</v>
+      </c>
+      <c r="E8" s="1">
+        <f>'Financial Data'!C16/'Financial Data'!C17</f>
+        <v>17.486332574031891</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>41</v>
+      <c r="D9" s="1">
+        <f>'Financial Data'!B11/'Financial Data'!B5</f>
+        <v>0.34092812468445782</v>
+      </c>
+      <c r="E9" s="1">
+        <f>'Financial Data'!C11/'Financial Data'!C5</f>
+        <v>0.375673873567132</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" t="s">
-        <v>46</v>
+      <c r="D11" s="1">
+        <f>'Financial Data'!B14/'Financial Data'!B11</f>
+        <v>0.70506454816286002</v>
+      </c>
+      <c r="E11" s="1">
+        <f>'Financial Data'!C14/'Financial Data'!C11</f>
+        <v>0.71399709219992069</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
-        <v>48</v>
+      <c r="D12" s="1">
+        <f>'Financial Data'!B18/'Financial Data'!B11</f>
+        <v>0.21678078015296434</v>
+      </c>
+      <c r="E12" s="1">
+        <f>'Financial Data'!C18/'Financial Data'!C11</f>
+        <v>0.19763599629916354</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
+      <c r="D13" s="1">
+        <f>'Financial Data'!B16/'Financial Data'!B11</f>
+        <v>0.30798445965957594</v>
+      </c>
+      <c r="E13" s="1">
+        <f>'Financial Data'!C16/'Financial Data'!C11</f>
+        <v>0.28989256245161532</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>52</v>
+      <c r="D14" s="1">
+        <f>'Financial Data'!B16/'Financial Data'!B5</f>
+        <v>0.10500056426369528</v>
+      </c>
+      <c r="E14" s="1">
+        <f>'Financial Data'!C16/'Financial Data'!C5</f>
+        <v>0.10890506185450005</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
       </c>
-      <c r="C15" t="s">
-        <v>54</v>
+      <c r="D15" s="1">
+        <f>'Financial Data'!B18/'Financial Data'!B9</f>
+        <v>0.33532756622739646</v>
+      </c>
+      <c r="E15" s="1">
+        <f>'Financial Data'!C18/'Financial Data'!C9</f>
+        <v>0.31946648760835061</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="1">
+        <f>'Financial Data'!B25/'Financial Data'!B29</f>
+        <v>26.766684883066784</v>
+      </c>
+      <c r="E16" s="1">
+        <f>'Financial Data'!C25/'Financial Data'!C29</f>
+        <v>31.617492118085416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="C17" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
-        <v>59</v>
+      <c r="D17" s="1">
+        <f>'Financial Data'!B25/'Financial Data'!B31</f>
+        <v>15.704054054054053</v>
+      </c>
+      <c r="E17" s="1">
+        <f>'Financial Data'!C25/'Financial Data'!C31</f>
+        <v>35.524242424242431</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="10" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="1048575" spans="1:16384">
@@ -33935,4 +34260,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" cellComments="asDisplayed"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>